--- a/REGULAR/OJT/MANALO, ELIADA.xlsx
+++ b/REGULAR/OJT/MANALO, ELIADA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A093D2E-8D03-495E-81A7-B968D101668F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="215">
   <si>
     <t>PERIOD</t>
   </si>
@@ -684,7 +685,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1375,7 +1376,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1418,7 +1419,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1482,7 +1483,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1542,7 +1543,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1608,7 +1609,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1671,7 +1672,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1769,7 +1770,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1828,7 +1829,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1893,7 +1894,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1936,7 +1937,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2011,7 +2012,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2197,7 +2198,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2263,7 +2264,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2321,7 +2322,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2387,7 +2388,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2443,7 +2444,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2518,7 +2519,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2561,7 +2562,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2627,7 +2628,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2683,7 +2684,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2762,7 +2763,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2779,25 +2780,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K398" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K398" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3104,7 +3105,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3114,7 +3115,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3122,34 +3123,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K398"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A347" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A347" activePane="bottomLeft"/>
       <selection activeCell="F2" sqref="F2:G2"/>
-      <selection pane="bottomLeft" activeCell="K354" sqref="K354"/>
+      <selection pane="bottomLeft" activeCell="K355" sqref="K355"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3170,7 +3171,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3190,7 +3191,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3212,7 +3213,7 @@
       <c r="J4" s="53"/>
       <c r="K4" s="54"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3220,7 +3221,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3233,7 +3234,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="51" t="s">
@@ -3250,7 +3251,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3285,7 +3286,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3294,7 +3295,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>64.233000000000004</v>
+        <v>66.733000000000004</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3304,12 +3305,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>74.5</v>
+        <v>76</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>76</v>
       </c>
@@ -3324,7 +3325,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="23">
         <v>39286</v>
       </c>
@@ -3344,7 +3345,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="23">
         <v>39295</v>
       </c>
@@ -3364,7 +3365,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="23">
         <v>39326</v>
       </c>
@@ -3384,7 +3385,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="23">
         <v>39356</v>
       </c>
@@ -3404,7 +3405,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="23">
         <v>39387</v>
       </c>
@@ -3424,7 +3425,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="23">
         <v>39417</v>
       </c>
@@ -3444,7 +3445,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="47" t="s">
         <v>77</v>
       </c>
@@ -3466,7 +3467,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="23">
         <v>39448</v>
       </c>
@@ -3486,7 +3487,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="23">
         <v>39479</v>
       </c>
@@ -3506,7 +3507,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="23">
         <v>39508</v>
       </c>
@@ -3526,7 +3527,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="23">
         <v>39539</v>
       </c>
@@ -3546,7 +3547,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="23">
         <v>39569</v>
       </c>
@@ -3566,7 +3567,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="23">
         <v>39600</v>
       </c>
@@ -3586,7 +3587,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="23">
         <v>39630</v>
       </c>
@@ -3606,7 +3607,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="23">
         <v>39661</v>
       </c>
@@ -3626,7 +3627,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="23">
         <v>39692</v>
       </c>
@@ -3646,7 +3647,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="23">
         <v>39722</v>
       </c>
@@ -3666,7 +3667,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="23">
         <v>39753</v>
       </c>
@@ -3686,7 +3687,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="23">
         <v>39783</v>
       </c>
@@ -3710,7 +3711,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="47" t="s">
         <v>78</v>
       </c>
@@ -3732,7 +3733,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="23">
         <v>39814</v>
       </c>
@@ -3752,7 +3753,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="23">
         <v>39845</v>
       </c>
@@ -3772,7 +3773,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="23">
         <v>39873</v>
       </c>
@@ -3796,7 +3797,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="23"/>
       <c r="B34" s="20" t="s">
         <v>48</v>
@@ -3813,7 +3814,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="23"/>
       <c r="B35" s="20" t="s">
         <v>48</v>
@@ -3830,7 +3831,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="23">
         <v>39904</v>
       </c>
@@ -3850,7 +3851,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="23">
         <v>39934</v>
       </c>
@@ -3870,7 +3871,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="23">
         <v>39965</v>
       </c>
@@ -3890,7 +3891,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="23">
         <v>39995</v>
       </c>
@@ -3910,7 +3911,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="23">
         <v>40026</v>
       </c>
@@ -3936,7 +3937,7 @@
         <v>40078</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="23"/>
       <c r="B41" s="20" t="s">
         <v>91</v>
@@ -3953,7 +3954,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="23">
         <v>40057</v>
       </c>
@@ -3977,7 +3978,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="23">
         <v>40087</v>
       </c>
@@ -4003,7 +4004,7 @@
         <v>40093</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="23"/>
       <c r="B44" s="20" t="s">
         <v>93</v>
@@ -4020,7 +4021,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="48"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="23">
         <v>40118</v>
       </c>
@@ -4046,7 +4047,7 @@
         <v>40127</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="23"/>
       <c r="B46" s="20" t="s">
         <v>47</v>
@@ -4068,7 +4069,7 @@
         <v>40130</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="23"/>
       <c r="B47" s="20" t="s">
         <v>94</v>
@@ -4088,7 +4089,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="23">
         <v>40148</v>
       </c>
@@ -4114,7 +4115,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="23"/>
       <c r="B49" s="20" t="s">
         <v>47</v>
@@ -4136,7 +4137,7 @@
         <v>40156</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="23"/>
       <c r="B50" s="20" t="s">
         <v>95</v>
@@ -4156,7 +4157,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="47" t="s">
         <v>79</v>
       </c>
@@ -4178,7 +4179,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="23">
         <v>40179</v>
       </c>
@@ -4204,7 +4205,7 @@
         <v>40205</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="23"/>
       <c r="B53" s="20" t="s">
         <v>97</v>
@@ -4224,7 +4225,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="23">
         <v>40210</v>
       </c>
@@ -4250,7 +4251,7 @@
         <v>40219</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="23"/>
       <c r="B55" s="20" t="s">
         <v>98</v>
@@ -4272,7 +4273,7 @@
         <v>40233</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="23"/>
       <c r="B56" s="20" t="s">
         <v>51</v>
@@ -4292,7 +4293,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="23"/>
       <c r="B57" s="20" t="s">
         <v>99</v>
@@ -4312,7 +4313,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="23">
         <v>40238</v>
       </c>
@@ -4338,7 +4339,7 @@
         <v>40261</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="23"/>
       <c r="B59" s="20" t="s">
         <v>100</v>
@@ -4358,7 +4359,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="23">
         <v>40269</v>
       </c>
@@ -4384,7 +4385,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="23"/>
       <c r="B61" s="20" t="s">
         <v>47</v>
@@ -4406,7 +4407,7 @@
         <v>40284</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="23"/>
       <c r="B62" s="20" t="s">
         <v>47</v>
@@ -4428,7 +4429,7 @@
         <v>40303</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="23"/>
       <c r="B63" s="20" t="s">
         <v>48</v>
@@ -4448,7 +4449,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="23"/>
       <c r="B64" s="20" t="s">
         <v>105</v>
@@ -4465,7 +4466,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="23">
         <v>40299</v>
       </c>
@@ -4489,7 +4490,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="23">
         <v>40330</v>
       </c>
@@ -4513,7 +4514,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="23">
         <v>40360</v>
       </c>
@@ -4537,7 +4538,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="23">
         <v>40391</v>
       </c>
@@ -4563,7 +4564,7 @@
         <v>40401</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="23"/>
       <c r="B69" s="20" t="s">
         <v>109</v>
@@ -4583,7 +4584,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="23">
         <v>40422</v>
       </c>
@@ -4609,7 +4610,7 @@
         <v>40443</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="23"/>
       <c r="B71" s="20" t="s">
         <v>47</v>
@@ -4631,7 +4632,7 @@
         <v>40448</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="23"/>
       <c r="B72" s="20" t="s">
         <v>110</v>
@@ -4651,7 +4652,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="23">
         <v>40452</v>
       </c>
@@ -4677,7 +4678,7 @@
         <v>40455</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="23"/>
       <c r="B74" s="20" t="s">
         <v>111</v>
@@ -4697,7 +4698,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="23">
         <v>40483</v>
       </c>
@@ -4723,7 +4724,7 @@
         <v>40506</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="23"/>
       <c r="B76" s="20" t="s">
         <v>112</v>
@@ -4743,7 +4744,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="23">
         <v>40513</v>
       </c>
@@ -4767,7 +4768,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="47" t="s">
         <v>80</v>
       </c>
@@ -4789,7 +4790,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="23">
         <v>40544</v>
       </c>
@@ -4815,7 +4816,7 @@
         <v>40564</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="23"/>
       <c r="B80" s="20" t="s">
         <v>114</v>
@@ -4835,7 +4836,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="23">
         <v>40575</v>
       </c>
@@ -4861,7 +4862,7 @@
         <v>40585</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="23"/>
       <c r="B82" s="20" t="s">
         <v>64</v>
@@ -4883,7 +4884,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="23"/>
       <c r="B83" s="20" t="s">
         <v>49</v>
@@ -4902,7 +4903,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="23"/>
       <c r="B84" s="20" t="s">
         <v>117</v>
@@ -4919,7 +4920,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="23">
         <v>40603</v>
       </c>
@@ -4945,7 +4946,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="23"/>
       <c r="B86" s="20" t="s">
         <v>48</v>
@@ -4965,7 +4966,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="23"/>
       <c r="B87" s="20" t="s">
         <v>118</v>
@@ -4985,7 +4986,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="23">
         <v>40634</v>
       </c>
@@ -5011,7 +5012,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="23"/>
       <c r="B89" s="20" t="s">
         <v>47</v>
@@ -5033,7 +5034,7 @@
         <v>40641</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="23"/>
       <c r="B90" s="20" t="s">
         <v>47</v>
@@ -5055,7 +5056,7 @@
         <v>40653</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="23"/>
       <c r="B91" s="20" t="s">
         <v>47</v>
@@ -5077,7 +5078,7 @@
         <v>40661</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="23"/>
       <c r="B92" s="20" t="s">
         <v>119</v>
@@ -5097,7 +5098,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="23">
         <v>40664</v>
       </c>
@@ -5123,7 +5124,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="23"/>
       <c r="B94" s="20" t="s">
         <v>120</v>
@@ -5143,7 +5144,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="23">
         <v>40695</v>
       </c>
@@ -5169,7 +5170,7 @@
         <v>40702</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="23"/>
       <c r="B96" s="20" t="s">
         <v>121</v>
@@ -5189,7 +5190,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="23">
         <v>40725</v>
       </c>
@@ -5215,7 +5216,7 @@
         <v>40732</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="23"/>
       <c r="B98" s="20" t="s">
         <v>47</v>
@@ -5237,7 +5238,7 @@
         <v>40737</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="23"/>
       <c r="B99" s="20" t="s">
         <v>122</v>
@@ -5257,7 +5258,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="23">
         <v>40756</v>
       </c>
@@ -5283,7 +5284,7 @@
         <v>40767</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="23"/>
       <c r="B101" s="20" t="s">
         <v>48</v>
@@ -5303,7 +5304,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="23"/>
       <c r="B102" s="20" t="s">
         <v>123</v>
@@ -5323,7 +5324,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="23">
         <v>40787</v>
       </c>
@@ -5349,7 +5350,7 @@
         <v>40800</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="23"/>
       <c r="B104" s="20" t="s">
         <v>128</v>
@@ -5369,7 +5370,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="48"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="23">
         <v>40817</v>
       </c>
@@ -5395,7 +5396,7 @@
         <v>40821</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="23"/>
       <c r="B106" s="20" t="s">
         <v>49</v>
@@ -5417,7 +5418,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="23"/>
       <c r="B107" s="20" t="s">
         <v>129</v>
@@ -5437,7 +5438,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="23">
         <v>40848</v>
       </c>
@@ -5463,7 +5464,7 @@
         <v>40870</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="23"/>
       <c r="B109" s="20" t="s">
         <v>130</v>
@@ -5483,7 +5484,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="23">
         <v>40878</v>
       </c>
@@ -5509,7 +5510,7 @@
         <v>40891</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="23"/>
       <c r="B111" s="20" t="s">
         <v>47</v>
@@ -5531,7 +5532,7 @@
         <v>40904</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="23"/>
       <c r="B112" s="20" t="s">
         <v>131</v>
@@ -5551,7 +5552,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="47" t="s">
         <v>81</v>
       </c>
@@ -5573,7 +5574,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="23">
         <v>40909</v>
       </c>
@@ -5599,7 +5600,7 @@
         <v>40925</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="23"/>
       <c r="B115" s="20" t="s">
         <v>133</v>
@@ -5616,7 +5617,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="23">
         <v>40940</v>
       </c>
@@ -5642,7 +5643,7 @@
         <v>40954</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="23"/>
       <c r="B117" s="20" t="s">
         <v>134</v>
@@ -5662,7 +5663,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="23"/>
       <c r="B118" s="20" t="s">
         <v>135</v>
@@ -5682,7 +5683,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="23">
         <v>40969</v>
       </c>
@@ -5708,7 +5709,7 @@
         <v>40988</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="23"/>
       <c r="B120" s="20" t="s">
         <v>136</v>
@@ -5728,7 +5729,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="23">
         <v>41000</v>
       </c>
@@ -5754,7 +5755,7 @@
         <v>41018</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="23"/>
       <c r="B122" s="20" t="s">
         <v>49</v>
@@ -5776,7 +5777,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="23"/>
       <c r="B123" s="20" t="s">
         <v>137</v>
@@ -5796,7 +5797,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="23">
         <v>41030</v>
       </c>
@@ -5822,7 +5823,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="23"/>
       <c r="B125" s="20" t="s">
         <v>140</v>
@@ -5839,7 +5840,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="23">
         <v>41061</v>
       </c>
@@ -5863,7 +5864,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="23">
         <v>41091</v>
       </c>
@@ -5889,7 +5890,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="23"/>
       <c r="B128" s="20" t="s">
         <v>142</v>
@@ -5909,7 +5910,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="23">
         <v>41122</v>
       </c>
@@ -5935,7 +5936,7 @@
         <v>41145</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="23"/>
       <c r="B130" s="20" t="s">
         <v>143</v>
@@ -5955,7 +5956,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="23">
         <v>41153</v>
       </c>
@@ -5981,7 +5982,7 @@
         <v>41172</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="23"/>
       <c r="B132" s="20" t="s">
         <v>144</v>
@@ -6001,7 +6002,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="23">
         <v>41183</v>
       </c>
@@ -6027,7 +6028,7 @@
         <v>41205</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="23"/>
       <c r="B134" s="20" t="s">
         <v>145</v>
@@ -6047,7 +6048,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="23">
         <v>41214</v>
       </c>
@@ -6071,7 +6072,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="23">
         <v>41244</v>
       </c>
@@ -6097,7 +6098,7 @@
         <v>41255</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="23"/>
       <c r="B137" s="20" t="s">
         <v>147</v>
@@ -6119,7 +6120,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="23"/>
       <c r="B138" s="20" t="s">
         <v>98</v>
@@ -6139,7 +6140,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="23"/>
       <c r="B139" s="20" t="s">
         <v>148</v>
@@ -6156,7 +6157,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="47" t="s">
         <v>82</v>
       </c>
@@ -6178,7 +6179,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="23">
         <v>41275</v>
       </c>
@@ -6204,7 +6205,7 @@
         <v>41297</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="23">
         <v>41306</v>
       </c>
@@ -6230,7 +6231,7 @@
         <v>41327</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="23"/>
       <c r="B143" s="20" t="s">
         <v>48</v>
@@ -6250,7 +6251,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="23">
         <v>41334</v>
       </c>
@@ -6276,7 +6277,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="23">
         <v>41365</v>
       </c>
@@ -6302,7 +6303,7 @@
         <v>41381</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="23">
         <v>41395</v>
       </c>
@@ -6328,7 +6329,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="23">
         <v>41426</v>
       </c>
@@ -6348,7 +6349,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="23">
         <v>41456</v>
       </c>
@@ -6374,7 +6375,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="23"/>
       <c r="B149" s="20" t="s">
         <v>48</v>
@@ -6394,7 +6395,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="23">
         <v>41487</v>
       </c>
@@ -6420,7 +6421,7 @@
         <v>41498</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="23">
         <v>41518</v>
       </c>
@@ -6446,7 +6447,7 @@
         <v>41528</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="23"/>
       <c r="B152" s="20" t="s">
         <v>47</v>
@@ -6468,7 +6469,7 @@
         <v>41542</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="23">
         <v>41548</v>
       </c>
@@ -6494,7 +6495,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="23">
         <v>41579</v>
       </c>
@@ -6514,7 +6515,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="23">
         <v>41609</v>
       </c>
@@ -6540,7 +6541,7 @@
         <v>41619</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="23"/>
       <c r="B156" s="20" t="s">
         <v>101</v>
@@ -6562,7 +6563,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="23"/>
       <c r="B157" s="20" t="s">
         <v>47</v>
@@ -6584,7 +6585,7 @@
         <v>41626</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="47" t="s">
         <v>83</v>
       </c>
@@ -6606,7 +6607,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="23">
         <v>41640</v>
       </c>
@@ -6632,7 +6633,7 @@
         <v>41294</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="23"/>
       <c r="B160" s="20" t="s">
         <v>47</v>
@@ -6654,7 +6655,7 @@
         <v>41682</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="23"/>
       <c r="B161" s="20" t="s">
         <v>160</v>
@@ -6674,7 +6675,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="23">
         <v>41671</v>
       </c>
@@ -6700,7 +6701,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="23"/>
       <c r="B163" s="20" t="s">
         <v>48</v>
@@ -6718,7 +6719,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="23"/>
       <c r="B164" s="20" t="s">
         <v>161</v>
@@ -6738,7 +6739,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="23">
         <v>41699</v>
       </c>
@@ -6762,7 +6763,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="23"/>
       <c r="B166" s="20" t="s">
         <v>157</v>
@@ -6784,7 +6785,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="23"/>
       <c r="B167" s="20" t="s">
         <v>47</v>
@@ -6806,7 +6807,7 @@
         <v>41715</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="23"/>
       <c r="B168" s="20" t="s">
         <v>49</v>
@@ -6828,7 +6829,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="23"/>
       <c r="B169" s="20" t="s">
         <v>162</v>
@@ -6848,7 +6849,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="23">
         <v>41730</v>
       </c>
@@ -6874,7 +6875,7 @@
         <v>41737</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="23"/>
       <c r="B171" s="20" t="s">
         <v>157</v>
@@ -6896,7 +6897,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="23"/>
       <c r="B172" s="20" t="s">
         <v>163</v>
@@ -6916,7 +6917,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="23">
         <v>41760</v>
       </c>
@@ -6942,7 +6943,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="23"/>
       <c r="B174" s="20" t="s">
         <v>47</v>
@@ -6964,7 +6965,7 @@
         <v>41782</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="23"/>
       <c r="B175" s="20" t="s">
         <v>101</v>
@@ -6986,7 +6987,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="23"/>
       <c r="B176" s="20" t="s">
         <v>49</v>
@@ -7008,7 +7009,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="23"/>
       <c r="B177" s="20" t="s">
         <v>47</v>
@@ -7030,7 +7031,7 @@
         <v>41796</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="23"/>
       <c r="B178" s="20" t="s">
         <v>164</v>
@@ -7050,7 +7051,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="23">
         <v>41791</v>
       </c>
@@ -7074,7 +7075,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="23">
         <v>41821</v>
       </c>
@@ -7100,7 +7101,7 @@
         <v>41829</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="23"/>
       <c r="B181" s="20" t="s">
         <v>47</v>
@@ -7119,7 +7120,7 @@
         <v>41843</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="23"/>
       <c r="B182" s="20" t="s">
         <v>174</v>
@@ -7136,7 +7137,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="23">
         <v>41852</v>
       </c>
@@ -7162,7 +7163,7 @@
         <v>41852</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="23"/>
       <c r="B184" s="20" t="s">
         <v>47</v>
@@ -7181,7 +7182,7 @@
         <v>41864</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="23"/>
       <c r="B185" s="20" t="s">
         <v>175</v>
@@ -7198,7 +7199,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="23">
         <v>41883</v>
       </c>
@@ -7224,7 +7225,7 @@
         <v>41885</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="23"/>
       <c r="B187" s="20" t="s">
         <v>47</v>
@@ -7243,7 +7244,7 @@
         <v>41906</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="23"/>
       <c r="B188" s="20" t="s">
         <v>176</v>
@@ -7260,7 +7261,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="23">
         <v>41913</v>
       </c>
@@ -7286,7 +7287,7 @@
         <v>41934</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="23"/>
       <c r="B190" s="20" t="s">
         <v>177</v>
@@ -7303,7 +7304,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="23">
         <v>41944</v>
       </c>
@@ -7329,7 +7330,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="23"/>
       <c r="B192" s="20" t="s">
         <v>178</v>
@@ -7346,7 +7347,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="23">
         <v>41974</v>
       </c>
@@ -7372,7 +7373,7 @@
         <v>41982</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="23"/>
       <c r="B194" s="20" t="s">
         <v>179</v>
@@ -7389,7 +7390,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="47" t="s">
         <v>84</v>
       </c>
@@ -7411,7 +7412,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="23">
         <v>42005</v>
       </c>
@@ -7437,7 +7438,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="23"/>
       <c r="B197" s="20" t="s">
         <v>181</v>
@@ -7457,7 +7458,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="23">
         <v>42036</v>
       </c>
@@ -7483,7 +7484,7 @@
         <v>42036</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="23"/>
       <c r="B199" s="20" t="s">
         <v>48</v>
@@ -7503,7 +7504,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="23"/>
       <c r="B200" s="20" t="s">
         <v>184</v>
@@ -7523,7 +7524,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="23">
         <v>42064</v>
       </c>
@@ -7549,7 +7550,7 @@
         <v>42088</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="23"/>
       <c r="B202" s="20" t="s">
         <v>185</v>
@@ -7569,7 +7570,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="23">
         <v>42095</v>
       </c>
@@ -7595,7 +7596,7 @@
         <v>42114</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="23"/>
       <c r="B204" s="20" t="s">
         <v>186</v>
@@ -7615,7 +7616,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="23">
         <v>42125</v>
       </c>
@@ -7641,7 +7642,7 @@
         <v>42130</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="23"/>
       <c r="B206" s="20" t="s">
         <v>47</v>
@@ -7663,7 +7664,7 @@
         <v>42135</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="23"/>
       <c r="B207" s="20" t="s">
         <v>49</v>
@@ -7685,7 +7686,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="23"/>
       <c r="B208" s="20" t="s">
         <v>187</v>
@@ -7705,7 +7706,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="23">
         <v>42156</v>
       </c>
@@ -7731,7 +7732,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="23"/>
       <c r="B210" s="20" t="s">
         <v>188</v>
@@ -7751,7 +7752,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="23">
         <v>42186</v>
       </c>
@@ -7777,7 +7778,7 @@
         <v>42187</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="23"/>
       <c r="B212" s="20" t="s">
         <v>53</v>
@@ -7799,7 +7800,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="23"/>
       <c r="B213" s="20" t="s">
         <v>47</v>
@@ -7821,7 +7822,7 @@
         <v>42209</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="23"/>
       <c r="B214" s="20" t="s">
         <v>49</v>
@@ -7843,7 +7844,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="23"/>
       <c r="B215" s="20" t="s">
         <v>189</v>
@@ -7863,7 +7864,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="23">
         <v>42217</v>
       </c>
@@ -7889,7 +7890,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="23"/>
       <c r="B217" s="20" t="s">
         <v>190</v>
@@ -7909,7 +7910,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="23">
         <v>42248</v>
       </c>
@@ -7933,7 +7934,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="23"/>
       <c r="B219" s="20" t="s">
         <v>191</v>
@@ -7953,7 +7954,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="23">
         <v>42278</v>
       </c>
@@ -7979,7 +7980,7 @@
         <v>42283</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="23"/>
       <c r="B221" s="20" t="s">
         <v>47</v>
@@ -8001,7 +8002,7 @@
         <v>42289</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="23"/>
       <c r="B222" s="20" t="s">
         <v>49</v>
@@ -8023,7 +8024,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="23"/>
       <c r="B223" s="20" t="s">
         <v>64</v>
@@ -8042,7 +8043,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="23"/>
       <c r="B224" s="20" t="s">
         <v>73</v>
@@ -8061,7 +8062,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="23"/>
       <c r="B225" s="20" t="s">
         <v>199</v>
@@ -8078,7 +8079,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="23">
         <v>42309</v>
       </c>
@@ -8104,7 +8105,7 @@
         <v>42321</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="23"/>
       <c r="B227" s="20" t="s">
         <v>47</v>
@@ -8123,7 +8124,7 @@
         <v>42332</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="23"/>
       <c r="B228" s="20" t="s">
         <v>73</v>
@@ -8142,7 +8143,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="23"/>
       <c r="B229" s="20" t="s">
         <v>200</v>
@@ -8159,7 +8160,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="23">
         <v>42339</v>
       </c>
@@ -8185,7 +8186,7 @@
         <v>42356</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="23"/>
       <c r="B231" s="20" t="s">
         <v>201</v>
@@ -8202,7 +8203,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="47" t="s">
         <v>85</v>
       </c>
@@ -8224,7 +8225,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="23">
         <v>42370</v>
       </c>
@@ -8244,7 +8245,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="23">
         <v>42401</v>
       </c>
@@ -8270,7 +8271,7 @@
         <v>42416</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="23"/>
       <c r="B235" s="20" t="s">
         <v>47</v>
@@ -8287,7 +8288,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="23"/>
       <c r="B236" s="20" t="s">
         <v>48</v>
@@ -8304,7 +8305,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="23">
         <v>42430</v>
       </c>
@@ -8330,7 +8331,7 @@
         <v>42460</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="23">
         <v>42461</v>
       </c>
@@ -8354,7 +8355,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="23">
         <v>42491</v>
       </c>
@@ -8380,7 +8381,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="23"/>
       <c r="B240" s="20" t="s">
         <v>47</v>
@@ -8402,7 +8403,7 @@
         <v>42509</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="23">
         <v>42522</v>
       </c>
@@ -8428,7 +8429,7 @@
         <v>42524</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="23"/>
       <c r="B242" s="20" t="s">
         <v>47</v>
@@ -8450,7 +8451,7 @@
         <v>42530</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="23"/>
       <c r="B243" s="20" t="s">
         <v>47</v>
@@ -8472,7 +8473,7 @@
         <v>42551</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="23">
         <v>42552</v>
       </c>
@@ -8496,7 +8497,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="23">
         <v>42583</v>
       </c>
@@ -8522,7 +8523,7 @@
         <v>42612</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="23">
         <v>42614</v>
       </c>
@@ -8548,7 +8549,7 @@
         <v>42634</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="23">
         <v>42644</v>
       </c>
@@ -8574,7 +8575,7 @@
         <v>42662</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="23"/>
       <c r="B248" s="20" t="s">
         <v>47</v>
@@ -8596,7 +8597,7 @@
         <v>42683</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="23">
         <v>42675</v>
       </c>
@@ -8622,7 +8623,7 @@
         <v>42676</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="23"/>
       <c r="B250" s="20" t="s">
         <v>47</v>
@@ -8644,7 +8645,7 @@
         <v>42712</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="23">
         <v>42705</v>
       </c>
@@ -8668,7 +8669,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="47" t="s">
         <v>86</v>
       </c>
@@ -8690,7 +8691,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="23">
         <v>42736</v>
       </c>
@@ -8716,7 +8717,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="23"/>
       <c r="B254" s="20" t="s">
         <v>73</v>
@@ -8738,7 +8739,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="23">
         <v>42767</v>
       </c>
@@ -8758,7 +8759,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="23">
         <v>42795</v>
       </c>
@@ -8782,7 +8783,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="23"/>
       <c r="B257" s="20" t="s">
         <v>47</v>
@@ -8804,7 +8805,7 @@
         <v>42818</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="23"/>
       <c r="B258" s="20" t="s">
         <v>47</v>
@@ -8826,7 +8827,7 @@
         <v>42830</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="23">
         <v>42826</v>
       </c>
@@ -8852,7 +8853,7 @@
         <v>42852</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="23"/>
       <c r="B260" s="20" t="s">
         <v>47</v>
@@ -8874,7 +8875,7 @@
         <v>42888</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="23">
         <v>42856</v>
       </c>
@@ -8894,7 +8895,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="23">
         <v>42887</v>
       </c>
@@ -8914,7 +8915,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="23">
         <v>42917</v>
       </c>
@@ -8938,7 +8939,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="23">
         <v>42948</v>
       </c>
@@ -8958,7 +8959,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="23">
         <v>42979</v>
       </c>
@@ -8978,7 +8979,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="23">
         <v>43009</v>
       </c>
@@ -8998,7 +8999,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="23">
         <v>43040</v>
       </c>
@@ -9024,7 +9025,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="23"/>
       <c r="B268" s="20" t="s">
         <v>47</v>
@@ -9043,7 +9044,7 @@
         <v>43082</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="23"/>
       <c r="B269" s="20" t="s">
         <v>48</v>
@@ -9060,7 +9061,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="23">
         <v>43070</v>
       </c>
@@ -9080,7 +9081,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="47" t="s">
         <v>46</v>
       </c>
@@ -9102,7 +9103,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40">
         <v>43101</v>
       </c>
@@ -9128,7 +9129,7 @@
         <v>43115</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40">
         <v>43132</v>
       </c>
@@ -9154,7 +9155,7 @@
         <v>43143</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40">
         <v>43160</v>
       </c>
@@ -9178,7 +9179,7 @@
         <v>43168</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40">
         <v>43191</v>
       </c>
@@ -9204,7 +9205,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40">
         <v>43221</v>
       </c>
@@ -9224,7 +9225,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40">
         <v>43252</v>
       </c>
@@ -9244,7 +9245,7 @@
       <c r="J277" s="12"/>
       <c r="K277" s="15"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40">
         <v>43282</v>
       </c>
@@ -9264,7 +9265,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40">
         <v>43313</v>
       </c>
@@ -9284,7 +9285,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40">
         <v>43344</v>
       </c>
@@ -9308,7 +9309,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>47</v>
@@ -9330,7 +9331,7 @@
         <v>43360</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40">
         <v>43374</v>
       </c>
@@ -9356,7 +9357,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40">
         <v>43405</v>
       </c>
@@ -9376,7 +9377,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40">
         <v>43435</v>
       </c>
@@ -9396,7 +9397,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="47" t="s">
         <v>55</v>
       </c>
@@ -9414,7 +9415,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40">
         <v>43466</v>
       </c>
@@ -9440,7 +9441,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40">
         <v>43497</v>
       </c>
@@ -9460,7 +9461,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40">
         <v>43525</v>
       </c>
@@ -9480,7 +9481,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40">
         <v>43556</v>
       </c>
@@ -9500,7 +9501,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40">
         <v>43586</v>
       </c>
@@ -9526,7 +9527,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40"/>
       <c r="B291" s="20" t="s">
         <v>48</v>
@@ -9546,7 +9547,7 @@
         <v>43620</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40">
         <v>43617</v>
       </c>
@@ -9566,7 +9567,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40">
         <v>43647</v>
       </c>
@@ -9592,7 +9593,7 @@
         <v>43670</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40">
         <v>43678</v>
       </c>
@@ -9612,7 +9613,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40">
         <v>43709</v>
       </c>
@@ -9632,7 +9633,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40">
         <v>43739</v>
       </c>
@@ -9652,7 +9653,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40">
         <v>43770</v>
       </c>
@@ -9672,7 +9673,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40">
         <v>43800</v>
       </c>
@@ -9698,7 +9699,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40"/>
       <c r="B299" s="20" t="s">
         <v>47</v>
@@ -9720,7 +9721,7 @@
         <v>43780</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="47" t="s">
         <v>60</v>
       </c>
@@ -9738,7 +9739,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40">
         <v>43831</v>
       </c>
@@ -9758,7 +9759,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40">
         <v>43862</v>
       </c>
@@ -9778,7 +9779,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40">
         <v>43891</v>
       </c>
@@ -9798,7 +9799,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40">
         <v>43922</v>
       </c>
@@ -9818,7 +9819,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40">
         <v>43952</v>
       </c>
@@ -9838,7 +9839,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40">
         <v>43983</v>
       </c>
@@ -9858,7 +9859,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40">
         <v>44013</v>
       </c>
@@ -9878,7 +9879,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40">
         <v>44044</v>
       </c>
@@ -9898,7 +9899,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40">
         <v>44075</v>
       </c>
@@ -9924,7 +9925,7 @@
         <v>44089</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40"/>
       <c r="B310" s="20" t="s">
         <v>48</v>
@@ -9944,7 +9945,7 @@
         <v>44095</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40">
         <v>44105</v>
       </c>
@@ -9964,7 +9965,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40">
         <v>44136</v>
       </c>
@@ -9984,7 +9985,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40">
         <v>44166</v>
       </c>
@@ -10008,7 +10009,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="47" t="s">
         <v>61</v>
       </c>
@@ -10026,7 +10027,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40">
         <v>44197</v>
       </c>
@@ -10046,7 +10047,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40">
         <v>44228</v>
       </c>
@@ -10066,7 +10067,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="40">
         <v>44256</v>
       </c>
@@ -10086,7 +10087,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40">
         <v>44287</v>
       </c>
@@ -10106,7 +10107,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40">
         <v>44317</v>
       </c>
@@ -10126,7 +10127,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40">
         <v>44348</v>
       </c>
@@ -10146,7 +10147,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40">
         <v>44378</v>
       </c>
@@ -10166,7 +10167,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40">
         <v>44409</v>
       </c>
@@ -10186,7 +10187,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40">
         <v>44440</v>
       </c>
@@ -10206,7 +10207,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40">
         <v>44470</v>
       </c>
@@ -10226,7 +10227,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40">
         <v>44501</v>
       </c>
@@ -10246,7 +10247,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40">
         <v>44531</v>
       </c>
@@ -10272,7 +10273,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="47" t="s">
         <v>63</v>
       </c>
@@ -10290,7 +10291,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40">
         <v>44562</v>
       </c>
@@ -10310,7 +10311,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40">
         <v>44593</v>
       </c>
@@ -10330,7 +10331,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40">
         <v>44621</v>
       </c>
@@ -10352,7 +10353,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40">
         <v>44652</v>
       </c>
@@ -10372,7 +10373,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40">
         <v>44682</v>
       </c>
@@ -10398,7 +10399,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40"/>
       <c r="B333" s="20" t="s">
         <v>66</v>
@@ -10420,7 +10421,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40">
         <v>44713</v>
       </c>
@@ -10446,7 +10447,7 @@
         <v>44718</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40">
         <v>44743</v>
       </c>
@@ -10466,7 +10467,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40">
         <v>44774</v>
       </c>
@@ -10486,7 +10487,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40">
         <v>44805</v>
       </c>
@@ -10512,7 +10513,7 @@
         <v>44816</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40"/>
       <c r="B338" s="20" t="s">
         <v>68</v>
@@ -10534,7 +10535,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40">
         <v>44835</v>
       </c>
@@ -10560,7 +10561,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40">
         <v>44866</v>
       </c>
@@ -10586,7 +10587,7 @@
         <v>44889</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40">
         <v>44896</v>
       </c>
@@ -10612,7 +10613,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
         <v>47</v>
@@ -10634,7 +10635,7 @@
         <v>44908</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40"/>
       <c r="B343" s="20" t="s">
         <v>47</v>
@@ -10656,7 +10657,7 @@
         <v>44910</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="47" t="s">
         <v>72</v>
       </c>
@@ -10674,7 +10675,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40">
         <v>44927</v>
       </c>
@@ -10700,7 +10701,7 @@
         <v>44936</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40"/>
       <c r="B346" s="20" t="s">
         <v>47</v>
@@ -10722,7 +10723,7 @@
         <v>44957</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40">
         <v>44958</v>
       </c>
@@ -10748,7 +10749,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40"/>
       <c r="B348" s="20" t="s">
         <v>47</v>
@@ -10770,7 +10771,7 @@
         <v>44972</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40">
         <v>44986</v>
       </c>
@@ -10794,7 +10795,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40">
         <v>45017</v>
       </c>
@@ -10814,20 +10815,22 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40">
         <v>45047</v>
       </c>
       <c r="B351" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C351" s="13"/>
+      <c r="C351" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D351" s="39"/>
       <c r="E351" s="9"/>
       <c r="F351" s="20"/>
-      <c r="G351" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G351" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H351" s="39">
         <v>1</v>
@@ -10838,7 +10841,7 @@
         <v>45064</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40"/>
       <c r="B352" s="20" t="s">
         <v>47</v>
@@ -10860,20 +10863,22 @@
         <v>45069</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40">
         <v>45078</v>
       </c>
       <c r="B353" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C353" s="13"/>
+      <c r="C353" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D353" s="39"/>
       <c r="E353" s="9"/>
       <c r="F353" s="20"/>
-      <c r="G353" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G353" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H353" s="39">
         <v>1</v>
@@ -10884,11 +10889,13 @@
         <v>45086</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40">
         <v>45108</v>
       </c>
-      <c r="B354" s="20"/>
+      <c r="B354" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C354" s="13"/>
       <c r="D354" s="39"/>
       <c r="E354" s="9"/>
@@ -10897,12 +10904,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H354" s="39"/>
+      <c r="H354" s="39">
+        <v>1</v>
+      </c>
       <c r="I354" s="9"/>
       <c r="J354" s="11"/>
-      <c r="K354" s="20"/>
-    </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K354" s="48">
+        <v>45107</v>
+      </c>
+    </row>
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40">
         <v>45139</v>
       </c>
@@ -10920,7 +10931,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40">
         <v>45170</v>
       </c>
@@ -10938,7 +10949,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40">
         <v>45200</v>
       </c>
@@ -10956,7 +10967,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40">
         <v>45231</v>
       </c>
@@ -10974,7 +10985,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40">
         <v>45261</v>
       </c>
@@ -10992,7 +11003,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40">
         <v>45292</v>
       </c>
@@ -11010,7 +11021,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40">
         <v>45323</v>
       </c>
@@ -11028,7 +11039,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40">
         <v>45352</v>
       </c>
@@ -11046,7 +11057,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40">
         <v>45383</v>
       </c>
@@ -11064,7 +11075,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40">
         <v>45413</v>
       </c>
@@ -11082,7 +11093,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40">
         <v>45444</v>
       </c>
@@ -11100,7 +11111,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40">
         <v>45474</v>
       </c>
@@ -11118,7 +11129,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40">
         <v>45505</v>
       </c>
@@ -11136,7 +11147,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40">
         <v>45536</v>
       </c>
@@ -11154,7 +11165,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40">
         <v>45566</v>
       </c>
@@ -11172,7 +11183,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40">
         <v>45597</v>
       </c>
@@ -11190,7 +11201,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40">
         <v>45627</v>
       </c>
@@ -11208,7 +11219,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40">
         <v>45658</v>
       </c>
@@ -11226,7 +11237,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40">
         <v>45689</v>
       </c>
@@ -11244,7 +11255,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40">
         <v>45717</v>
       </c>
@@ -11262,7 +11273,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40">
         <v>45748</v>
       </c>
@@ -11280,7 +11291,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="40">
         <v>45778</v>
       </c>
@@ -11298,7 +11309,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40">
         <v>45809</v>
       </c>
@@ -11316,7 +11327,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40">
         <v>45839</v>
       </c>
@@ -11334,7 +11345,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40">
         <v>45870</v>
       </c>
@@ -11352,7 +11363,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40">
         <v>45901</v>
       </c>
@@ -11370,7 +11381,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40">
         <v>45931</v>
       </c>
@@ -11388,7 +11399,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40">
         <v>45962</v>
       </c>
@@ -11406,7 +11417,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40">
         <v>45992</v>
       </c>
@@ -11424,7 +11435,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40">
         <v>46023</v>
       </c>
@@ -11442,7 +11453,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40">
         <v>46054</v>
       </c>
@@ -11460,7 +11471,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40">
         <v>46082</v>
       </c>
@@ -11478,7 +11489,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40">
         <v>46113</v>
       </c>
@@ -11496,7 +11507,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40">
         <v>46143</v>
       </c>
@@ -11514,7 +11525,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40">
         <v>46174</v>
       </c>
@@ -11532,7 +11543,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40">
         <v>46204</v>
       </c>
@@ -11550,7 +11561,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40">
         <v>46235</v>
       </c>
@@ -11568,7 +11579,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="40">
         <v>46266</v>
       </c>
@@ -11586,7 +11597,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="40">
         <v>46296</v>
       </c>
@@ -11604,7 +11615,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40">
         <v>46327</v>
       </c>
@@ -11622,7 +11633,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40">
         <v>46357</v>
       </c>
@@ -11640,7 +11651,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="40">
         <v>46388</v>
       </c>
@@ -11658,7 +11669,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40">
         <v>46419</v>
       </c>
@@ -11676,7 +11687,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40">
         <v>46447</v>
       </c>
@@ -11709,10 +11720,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11735,28 +11746,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
@@ -11769,7 +11780,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -11798,7 +11809,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -11822,17 +11833,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -11853,7 +11864,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -11880,7 +11891,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -11906,7 +11917,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -11932,7 +11943,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -11958,7 +11969,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -11984,7 +11995,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -12010,7 +12021,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -12036,7 +12047,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -12062,7 +12073,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -12082,7 +12093,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -12102,7 +12113,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -12122,7 +12133,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -12143,7 +12154,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -12164,7 +12175,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -12185,7 +12196,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -12206,7 +12217,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -12227,7 +12238,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -12248,7 +12259,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -12269,7 +12280,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -12290,7 +12301,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -12311,7 +12322,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -12332,7 +12343,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -12353,7 +12364,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -12374,7 +12385,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -12395,7 +12406,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -12416,7 +12427,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -12437,7 +12448,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -12458,7 +12469,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -12479,7 +12490,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -12500,7 +12511,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -12521,7 +12532,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -12542,7 +12553,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -12551,7 +12562,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -12560,7 +12571,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -12569,7 +12580,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -12578,7 +12589,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -12587,7 +12598,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -12596,7 +12607,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -12605,7 +12616,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -12614,7 +12625,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -12623,7 +12634,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -12632,7 +12643,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -12641,7 +12652,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -12650,7 +12661,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -12659,7 +12670,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -12668,7 +12679,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -12677,7 +12688,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -12686,7 +12697,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -12695,7 +12706,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -12704,7 +12715,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -12713,7 +12724,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -12722,7 +12733,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -12731,7 +12742,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -12740,7 +12751,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -12749,7 +12760,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -12758,7 +12769,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -12767,7 +12778,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -12776,7 +12787,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -12785,7 +12796,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -12794,7 +12805,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -12803,7 +12814,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/MANALO, ELIADA.xlsx
+++ b/REGULAR/OJT/MANALO, ELIADA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A093D2E-8D03-495E-81A7-B968D101668F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="215">
   <si>
     <t>PERIOD</t>
   </si>
@@ -685,7 +684,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1376,7 +1375,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1419,7 +1418,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1483,7 +1482,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1543,7 +1542,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1609,7 +1608,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1672,7 +1671,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1770,7 +1769,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1829,7 +1828,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1894,7 +1893,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1937,7 +1936,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2012,7 +2011,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2198,7 +2197,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2264,7 +2263,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2322,7 +2321,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2388,7 +2387,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2444,7 +2443,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2519,7 +2518,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2562,7 +2561,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2628,7 +2627,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2684,7 +2683,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2763,7 +2762,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2780,25 +2779,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K398" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K399" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3105,7 +3104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3115,7 +3114,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3123,34 +3122,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K398"/>
+  <dimension ref="A2:K399"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A347" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A347" activePane="bottomLeft"/>
       <selection activeCell="F2" sqref="F2:G2"/>
-      <selection pane="bottomLeft" activeCell="K355" sqref="K355"/>
+      <selection pane="bottomLeft" activeCell="D355" sqref="D355"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3171,7 +3170,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3191,7 +3190,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3213,7 +3212,7 @@
       <c r="J4" s="53"/>
       <c r="K4" s="54"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3221,7 +3220,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3234,7 +3233,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="51" t="s">
@@ -3251,7 +3250,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3286,7 +3285,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3305,12 +3304,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>76</v>
       </c>
@@ -3325,7 +3324,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>39286</v>
       </c>
@@ -3345,7 +3344,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>39295</v>
       </c>
@@ -3365,7 +3364,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <v>39326</v>
       </c>
@@ -3385,7 +3384,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <v>39356</v>
       </c>
@@ -3405,7 +3404,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <v>39387</v>
       </c>
@@ -3425,7 +3424,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <v>39417</v>
       </c>
@@ -3445,7 +3444,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="47" t="s">
         <v>77</v>
       </c>
@@ -3467,7 +3466,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
         <v>39448</v>
       </c>
@@ -3487,7 +3486,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <v>39479</v>
       </c>
@@ -3507,7 +3506,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <v>39508</v>
       </c>
@@ -3527,7 +3526,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <v>39539</v>
       </c>
@@ -3547,7 +3546,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <v>39569</v>
       </c>
@@ -3567,7 +3566,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
         <v>39600</v>
       </c>
@@ -3587,7 +3586,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <v>39630</v>
       </c>
@@ -3607,7 +3606,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="23">
         <v>39661</v>
       </c>
@@ -3627,7 +3626,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <v>39692</v>
       </c>
@@ -3647,7 +3646,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
         <v>39722</v>
       </c>
@@ -3667,7 +3666,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
         <v>39753</v>
       </c>
@@ -3687,7 +3686,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
         <v>39783</v>
       </c>
@@ -3711,7 +3710,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="47" t="s">
         <v>78</v>
       </c>
@@ -3733,7 +3732,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
         <v>39814</v>
       </c>
@@ -3753,7 +3752,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="23">
         <v>39845</v>
       </c>
@@ -3773,7 +3772,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="23">
         <v>39873</v>
       </c>
@@ -3797,7 +3796,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="23"/>
       <c r="B34" s="20" t="s">
         <v>48</v>
@@ -3814,7 +3813,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="23"/>
       <c r="B35" s="20" t="s">
         <v>48</v>
@@ -3831,7 +3830,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="23">
         <v>39904</v>
       </c>
@@ -3851,7 +3850,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="23">
         <v>39934</v>
       </c>
@@ -3871,7 +3870,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="23">
         <v>39965</v>
       </c>
@@ -3891,7 +3890,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="23">
         <v>39995</v>
       </c>
@@ -3911,7 +3910,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="23">
         <v>40026</v>
       </c>
@@ -3937,7 +3936,7 @@
         <v>40078</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="23"/>
       <c r="B41" s="20" t="s">
         <v>91</v>
@@ -3954,7 +3953,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="23">
         <v>40057</v>
       </c>
@@ -3978,7 +3977,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="23">
         <v>40087</v>
       </c>
@@ -4004,7 +4003,7 @@
         <v>40093</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="23"/>
       <c r="B44" s="20" t="s">
         <v>93</v>
@@ -4021,7 +4020,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="48"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="23">
         <v>40118</v>
       </c>
@@ -4047,7 +4046,7 @@
         <v>40127</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="23"/>
       <c r="B46" s="20" t="s">
         <v>47</v>
@@ -4069,7 +4068,7 @@
         <v>40130</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="23"/>
       <c r="B47" s="20" t="s">
         <v>94</v>
@@ -4089,7 +4088,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="23">
         <v>40148</v>
       </c>
@@ -4115,7 +4114,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="23"/>
       <c r="B49" s="20" t="s">
         <v>47</v>
@@ -4137,7 +4136,7 @@
         <v>40156</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="23"/>
       <c r="B50" s="20" t="s">
         <v>95</v>
@@ -4157,7 +4156,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="47" t="s">
         <v>79</v>
       </c>
@@ -4179,7 +4178,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="23">
         <v>40179</v>
       </c>
@@ -4205,7 +4204,7 @@
         <v>40205</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="23"/>
       <c r="B53" s="20" t="s">
         <v>97</v>
@@ -4225,7 +4224,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="23">
         <v>40210</v>
       </c>
@@ -4251,7 +4250,7 @@
         <v>40219</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="23"/>
       <c r="B55" s="20" t="s">
         <v>98</v>
@@ -4273,7 +4272,7 @@
         <v>40233</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="23"/>
       <c r="B56" s="20" t="s">
         <v>51</v>
@@ -4293,7 +4292,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="23"/>
       <c r="B57" s="20" t="s">
         <v>99</v>
@@ -4313,7 +4312,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="23">
         <v>40238</v>
       </c>
@@ -4339,7 +4338,7 @@
         <v>40261</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="23"/>
       <c r="B59" s="20" t="s">
         <v>100</v>
@@ -4359,7 +4358,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="23">
         <v>40269</v>
       </c>
@@ -4385,7 +4384,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="23"/>
       <c r="B61" s="20" t="s">
         <v>47</v>
@@ -4407,7 +4406,7 @@
         <v>40284</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="23"/>
       <c r="B62" s="20" t="s">
         <v>47</v>
@@ -4429,7 +4428,7 @@
         <v>40303</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="23"/>
       <c r="B63" s="20" t="s">
         <v>48</v>
@@ -4449,7 +4448,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="23"/>
       <c r="B64" s="20" t="s">
         <v>105</v>
@@ -4466,7 +4465,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="23">
         <v>40299</v>
       </c>
@@ -4490,7 +4489,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="23">
         <v>40330</v>
       </c>
@@ -4514,7 +4513,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="23">
         <v>40360</v>
       </c>
@@ -4538,7 +4537,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="23">
         <v>40391</v>
       </c>
@@ -4564,7 +4563,7 @@
         <v>40401</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="23"/>
       <c r="B69" s="20" t="s">
         <v>109</v>
@@ -4584,7 +4583,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="23">
         <v>40422</v>
       </c>
@@ -4610,7 +4609,7 @@
         <v>40443</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="23"/>
       <c r="B71" s="20" t="s">
         <v>47</v>
@@ -4632,7 +4631,7 @@
         <v>40448</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="23"/>
       <c r="B72" s="20" t="s">
         <v>110</v>
@@ -4652,7 +4651,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="23">
         <v>40452</v>
       </c>
@@ -4678,7 +4677,7 @@
         <v>40455</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="23"/>
       <c r="B74" s="20" t="s">
         <v>111</v>
@@ -4698,7 +4697,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="23">
         <v>40483</v>
       </c>
@@ -4724,7 +4723,7 @@
         <v>40506</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="23"/>
       <c r="B76" s="20" t="s">
         <v>112</v>
@@ -4744,7 +4743,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="23">
         <v>40513</v>
       </c>
@@ -4768,7 +4767,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="47" t="s">
         <v>80</v>
       </c>
@@ -4790,7 +4789,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="23">
         <v>40544</v>
       </c>
@@ -4816,7 +4815,7 @@
         <v>40564</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="23"/>
       <c r="B80" s="20" t="s">
         <v>114</v>
@@ -4836,7 +4835,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="23">
         <v>40575</v>
       </c>
@@ -4862,7 +4861,7 @@
         <v>40585</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="23"/>
       <c r="B82" s="20" t="s">
         <v>64</v>
@@ -4884,7 +4883,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="23"/>
       <c r="B83" s="20" t="s">
         <v>49</v>
@@ -4903,7 +4902,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="23"/>
       <c r="B84" s="20" t="s">
         <v>117</v>
@@ -4920,7 +4919,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="23">
         <v>40603</v>
       </c>
@@ -4946,7 +4945,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="23"/>
       <c r="B86" s="20" t="s">
         <v>48</v>
@@ -4966,7 +4965,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="23"/>
       <c r="B87" s="20" t="s">
         <v>118</v>
@@ -4986,7 +4985,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="23">
         <v>40634</v>
       </c>
@@ -5012,7 +5011,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="23"/>
       <c r="B89" s="20" t="s">
         <v>47</v>
@@ -5034,7 +5033,7 @@
         <v>40641</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="23"/>
       <c r="B90" s="20" t="s">
         <v>47</v>
@@ -5056,7 +5055,7 @@
         <v>40653</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="23"/>
       <c r="B91" s="20" t="s">
         <v>47</v>
@@ -5078,7 +5077,7 @@
         <v>40661</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="23"/>
       <c r="B92" s="20" t="s">
         <v>119</v>
@@ -5098,7 +5097,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="23">
         <v>40664</v>
       </c>
@@ -5124,7 +5123,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="23"/>
       <c r="B94" s="20" t="s">
         <v>120</v>
@@ -5144,7 +5143,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="23">
         <v>40695</v>
       </c>
@@ -5170,7 +5169,7 @@
         <v>40702</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="23"/>
       <c r="B96" s="20" t="s">
         <v>121</v>
@@ -5190,7 +5189,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="23">
         <v>40725</v>
       </c>
@@ -5216,7 +5215,7 @@
         <v>40732</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="23"/>
       <c r="B98" s="20" t="s">
         <v>47</v>
@@ -5238,7 +5237,7 @@
         <v>40737</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="23"/>
       <c r="B99" s="20" t="s">
         <v>122</v>
@@ -5258,7 +5257,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="23">
         <v>40756</v>
       </c>
@@ -5284,7 +5283,7 @@
         <v>40767</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="23"/>
       <c r="B101" s="20" t="s">
         <v>48</v>
@@ -5304,7 +5303,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="23"/>
       <c r="B102" s="20" t="s">
         <v>123</v>
@@ -5324,7 +5323,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="23">
         <v>40787</v>
       </c>
@@ -5350,7 +5349,7 @@
         <v>40800</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="23"/>
       <c r="B104" s="20" t="s">
         <v>128</v>
@@ -5370,7 +5369,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="48"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="23">
         <v>40817</v>
       </c>
@@ -5396,7 +5395,7 @@
         <v>40821</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="23"/>
       <c r="B106" s="20" t="s">
         <v>49</v>
@@ -5418,7 +5417,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="23"/>
       <c r="B107" s="20" t="s">
         <v>129</v>
@@ -5438,7 +5437,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="23">
         <v>40848</v>
       </c>
@@ -5464,7 +5463,7 @@
         <v>40870</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="23"/>
       <c r="B109" s="20" t="s">
         <v>130</v>
@@ -5484,7 +5483,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="23">
         <v>40878</v>
       </c>
@@ -5510,7 +5509,7 @@
         <v>40891</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="23"/>
       <c r="B111" s="20" t="s">
         <v>47</v>
@@ -5532,7 +5531,7 @@
         <v>40904</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="23"/>
       <c r="B112" s="20" t="s">
         <v>131</v>
@@ -5552,7 +5551,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="47" t="s">
         <v>81</v>
       </c>
@@ -5574,7 +5573,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="23">
         <v>40909</v>
       </c>
@@ -5600,7 +5599,7 @@
         <v>40925</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="23"/>
       <c r="B115" s="20" t="s">
         <v>133</v>
@@ -5617,7 +5616,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="23">
         <v>40940</v>
       </c>
@@ -5643,7 +5642,7 @@
         <v>40954</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="23"/>
       <c r="B117" s="20" t="s">
         <v>134</v>
@@ -5663,7 +5662,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="23"/>
       <c r="B118" s="20" t="s">
         <v>135</v>
@@ -5683,7 +5682,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="23">
         <v>40969</v>
       </c>
@@ -5709,7 +5708,7 @@
         <v>40988</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="23"/>
       <c r="B120" s="20" t="s">
         <v>136</v>
@@ -5729,7 +5728,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="23">
         <v>41000</v>
       </c>
@@ -5755,7 +5754,7 @@
         <v>41018</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="23"/>
       <c r="B122" s="20" t="s">
         <v>49</v>
@@ -5777,7 +5776,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="23"/>
       <c r="B123" s="20" t="s">
         <v>137</v>
@@ -5797,7 +5796,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="23">
         <v>41030</v>
       </c>
@@ -5823,7 +5822,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="23"/>
       <c r="B125" s="20" t="s">
         <v>140</v>
@@ -5840,7 +5839,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="23">
         <v>41061</v>
       </c>
@@ -5864,7 +5863,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="23">
         <v>41091</v>
       </c>
@@ -5890,7 +5889,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="23"/>
       <c r="B128" s="20" t="s">
         <v>142</v>
@@ -5910,7 +5909,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="23">
         <v>41122</v>
       </c>
@@ -5936,7 +5935,7 @@
         <v>41145</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="23"/>
       <c r="B130" s="20" t="s">
         <v>143</v>
@@ -5956,7 +5955,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="23">
         <v>41153</v>
       </c>
@@ -5982,7 +5981,7 @@
         <v>41172</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="23"/>
       <c r="B132" s="20" t="s">
         <v>144</v>
@@ -6002,7 +6001,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="23">
         <v>41183</v>
       </c>
@@ -6028,7 +6027,7 @@
         <v>41205</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="23"/>
       <c r="B134" s="20" t="s">
         <v>145</v>
@@ -6048,7 +6047,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="23">
         <v>41214</v>
       </c>
@@ -6072,7 +6071,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="23">
         <v>41244</v>
       </c>
@@ -6098,7 +6097,7 @@
         <v>41255</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="23"/>
       <c r="B137" s="20" t="s">
         <v>147</v>
@@ -6120,7 +6119,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="23"/>
       <c r="B138" s="20" t="s">
         <v>98</v>
@@ -6140,7 +6139,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="23"/>
       <c r="B139" s="20" t="s">
         <v>148</v>
@@ -6157,7 +6156,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="47" t="s">
         <v>82</v>
       </c>
@@ -6179,7 +6178,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="23">
         <v>41275</v>
       </c>
@@ -6205,7 +6204,7 @@
         <v>41297</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="23">
         <v>41306</v>
       </c>
@@ -6231,7 +6230,7 @@
         <v>41327</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="23"/>
       <c r="B143" s="20" t="s">
         <v>48</v>
@@ -6251,7 +6250,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="23">
         <v>41334</v>
       </c>
@@ -6277,7 +6276,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="23">
         <v>41365</v>
       </c>
@@ -6303,7 +6302,7 @@
         <v>41381</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="23">
         <v>41395</v>
       </c>
@@ -6329,7 +6328,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="23">
         <v>41426</v>
       </c>
@@ -6349,7 +6348,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="23">
         <v>41456</v>
       </c>
@@ -6375,7 +6374,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="23"/>
       <c r="B149" s="20" t="s">
         <v>48</v>
@@ -6395,7 +6394,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="23">
         <v>41487</v>
       </c>
@@ -6421,7 +6420,7 @@
         <v>41498</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="23">
         <v>41518</v>
       </c>
@@ -6447,7 +6446,7 @@
         <v>41528</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="23"/>
       <c r="B152" s="20" t="s">
         <v>47</v>
@@ -6469,7 +6468,7 @@
         <v>41542</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="23">
         <v>41548</v>
       </c>
@@ -6495,7 +6494,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="23">
         <v>41579</v>
       </c>
@@ -6515,7 +6514,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="23">
         <v>41609</v>
       </c>
@@ -6541,7 +6540,7 @@
         <v>41619</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="23"/>
       <c r="B156" s="20" t="s">
         <v>101</v>
@@ -6563,7 +6562,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="23"/>
       <c r="B157" s="20" t="s">
         <v>47</v>
@@ -6585,7 +6584,7 @@
         <v>41626</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="47" t="s">
         <v>83</v>
       </c>
@@ -6607,7 +6606,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="23">
         <v>41640</v>
       </c>
@@ -6633,7 +6632,7 @@
         <v>41294</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="23"/>
       <c r="B160" s="20" t="s">
         <v>47</v>
@@ -6655,7 +6654,7 @@
         <v>41682</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="23"/>
       <c r="B161" s="20" t="s">
         <v>160</v>
@@ -6675,7 +6674,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="23">
         <v>41671</v>
       </c>
@@ -6701,7 +6700,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="23"/>
       <c r="B163" s="20" t="s">
         <v>48</v>
@@ -6719,7 +6718,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="23"/>
       <c r="B164" s="20" t="s">
         <v>161</v>
@@ -6739,7 +6738,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="23">
         <v>41699</v>
       </c>
@@ -6763,7 +6762,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="23"/>
       <c r="B166" s="20" t="s">
         <v>157</v>
@@ -6785,7 +6784,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="23"/>
       <c r="B167" s="20" t="s">
         <v>47</v>
@@ -6807,7 +6806,7 @@
         <v>41715</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="23"/>
       <c r="B168" s="20" t="s">
         <v>49</v>
@@ -6829,7 +6828,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="23"/>
       <c r="B169" s="20" t="s">
         <v>162</v>
@@ -6849,7 +6848,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="23">
         <v>41730</v>
       </c>
@@ -6875,7 +6874,7 @@
         <v>41737</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="23"/>
       <c r="B171" s="20" t="s">
         <v>157</v>
@@ -6897,7 +6896,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="23"/>
       <c r="B172" s="20" t="s">
         <v>163</v>
@@ -6917,7 +6916,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="23">
         <v>41760</v>
       </c>
@@ -6943,7 +6942,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="23"/>
       <c r="B174" s="20" t="s">
         <v>47</v>
@@ -6965,7 +6964,7 @@
         <v>41782</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="23"/>
       <c r="B175" s="20" t="s">
         <v>101</v>
@@ -6987,7 +6986,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="23"/>
       <c r="B176" s="20" t="s">
         <v>49</v>
@@ -7009,7 +7008,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="23"/>
       <c r="B177" s="20" t="s">
         <v>47</v>
@@ -7031,7 +7030,7 @@
         <v>41796</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="23"/>
       <c r="B178" s="20" t="s">
         <v>164</v>
@@ -7051,7 +7050,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="23">
         <v>41791</v>
       </c>
@@ -7075,7 +7074,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="23">
         <v>41821</v>
       </c>
@@ -7101,7 +7100,7 @@
         <v>41829</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="23"/>
       <c r="B181" s="20" t="s">
         <v>47</v>
@@ -7120,7 +7119,7 @@
         <v>41843</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="23"/>
       <c r="B182" s="20" t="s">
         <v>174</v>
@@ -7137,7 +7136,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="23">
         <v>41852</v>
       </c>
@@ -7163,7 +7162,7 @@
         <v>41852</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="23"/>
       <c r="B184" s="20" t="s">
         <v>47</v>
@@ -7182,7 +7181,7 @@
         <v>41864</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="23"/>
       <c r="B185" s="20" t="s">
         <v>175</v>
@@ -7199,7 +7198,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="23">
         <v>41883</v>
       </c>
@@ -7225,7 +7224,7 @@
         <v>41885</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="23"/>
       <c r="B187" s="20" t="s">
         <v>47</v>
@@ -7244,7 +7243,7 @@
         <v>41906</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="23"/>
       <c r="B188" s="20" t="s">
         <v>176</v>
@@ -7261,7 +7260,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="23">
         <v>41913</v>
       </c>
@@ -7287,7 +7286,7 @@
         <v>41934</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="23"/>
       <c r="B190" s="20" t="s">
         <v>177</v>
@@ -7304,7 +7303,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="23">
         <v>41944</v>
       </c>
@@ -7330,7 +7329,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="23"/>
       <c r="B192" s="20" t="s">
         <v>178</v>
@@ -7347,7 +7346,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="23">
         <v>41974</v>
       </c>
@@ -7373,7 +7372,7 @@
         <v>41982</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="23"/>
       <c r="B194" s="20" t="s">
         <v>179</v>
@@ -7390,7 +7389,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="47" t="s">
         <v>84</v>
       </c>
@@ -7412,7 +7411,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="23">
         <v>42005</v>
       </c>
@@ -7438,7 +7437,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="23"/>
       <c r="B197" s="20" t="s">
         <v>181</v>
@@ -7458,7 +7457,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="23">
         <v>42036</v>
       </c>
@@ -7484,7 +7483,7 @@
         <v>42036</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="23"/>
       <c r="B199" s="20" t="s">
         <v>48</v>
@@ -7504,7 +7503,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="23"/>
       <c r="B200" s="20" t="s">
         <v>184</v>
@@ -7524,7 +7523,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="23">
         <v>42064</v>
       </c>
@@ -7550,7 +7549,7 @@
         <v>42088</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="23"/>
       <c r="B202" s="20" t="s">
         <v>185</v>
@@ -7570,7 +7569,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="23">
         <v>42095</v>
       </c>
@@ -7596,7 +7595,7 @@
         <v>42114</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="23"/>
       <c r="B204" s="20" t="s">
         <v>186</v>
@@ -7616,7 +7615,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="23">
         <v>42125</v>
       </c>
@@ -7642,7 +7641,7 @@
         <v>42130</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="23"/>
       <c r="B206" s="20" t="s">
         <v>47</v>
@@ -7664,7 +7663,7 @@
         <v>42135</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="23"/>
       <c r="B207" s="20" t="s">
         <v>49</v>
@@ -7686,7 +7685,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="23"/>
       <c r="B208" s="20" t="s">
         <v>187</v>
@@ -7706,7 +7705,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="23">
         <v>42156</v>
       </c>
@@ -7732,7 +7731,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="23"/>
       <c r="B210" s="20" t="s">
         <v>188</v>
@@ -7752,7 +7751,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="23">
         <v>42186</v>
       </c>
@@ -7778,7 +7777,7 @@
         <v>42187</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="23"/>
       <c r="B212" s="20" t="s">
         <v>53</v>
@@ -7800,7 +7799,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="23"/>
       <c r="B213" s="20" t="s">
         <v>47</v>
@@ -7822,7 +7821,7 @@
         <v>42209</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="23"/>
       <c r="B214" s="20" t="s">
         <v>49</v>
@@ -7844,7 +7843,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="23"/>
       <c r="B215" s="20" t="s">
         <v>189</v>
@@ -7864,7 +7863,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="23">
         <v>42217</v>
       </c>
@@ -7890,7 +7889,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="23"/>
       <c r="B217" s="20" t="s">
         <v>190</v>
@@ -7910,7 +7909,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="23">
         <v>42248</v>
       </c>
@@ -7934,7 +7933,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="23"/>
       <c r="B219" s="20" t="s">
         <v>191</v>
@@ -7954,7 +7953,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="23">
         <v>42278</v>
       </c>
@@ -7980,7 +7979,7 @@
         <v>42283</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="23"/>
       <c r="B221" s="20" t="s">
         <v>47</v>
@@ -8002,7 +8001,7 @@
         <v>42289</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="23"/>
       <c r="B222" s="20" t="s">
         <v>49</v>
@@ -8024,7 +8023,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="23"/>
       <c r="B223" s="20" t="s">
         <v>64</v>
@@ -8043,7 +8042,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="23"/>
       <c r="B224" s="20" t="s">
         <v>73</v>
@@ -8062,7 +8061,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="23"/>
       <c r="B225" s="20" t="s">
         <v>199</v>
@@ -8079,7 +8078,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="23">
         <v>42309</v>
       </c>
@@ -8105,7 +8104,7 @@
         <v>42321</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="23"/>
       <c r="B227" s="20" t="s">
         <v>47</v>
@@ -8124,7 +8123,7 @@
         <v>42332</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="23"/>
       <c r="B228" s="20" t="s">
         <v>73</v>
@@ -8143,7 +8142,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="23"/>
       <c r="B229" s="20" t="s">
         <v>200</v>
@@ -8160,7 +8159,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="23">
         <v>42339</v>
       </c>
@@ -8186,7 +8185,7 @@
         <v>42356</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="23"/>
       <c r="B231" s="20" t="s">
         <v>201</v>
@@ -8203,7 +8202,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="47" t="s">
         <v>85</v>
       </c>
@@ -8225,7 +8224,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="23">
         <v>42370</v>
       </c>
@@ -8245,7 +8244,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="23">
         <v>42401</v>
       </c>
@@ -8271,7 +8270,7 @@
         <v>42416</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="23"/>
       <c r="B235" s="20" t="s">
         <v>47</v>
@@ -8288,7 +8287,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="23"/>
       <c r="B236" s="20" t="s">
         <v>48</v>
@@ -8305,7 +8304,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="23">
         <v>42430</v>
       </c>
@@ -8331,7 +8330,7 @@
         <v>42460</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="23">
         <v>42461</v>
       </c>
@@ -8355,7 +8354,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="23">
         <v>42491</v>
       </c>
@@ -8381,7 +8380,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="23"/>
       <c r="B240" s="20" t="s">
         <v>47</v>
@@ -8403,7 +8402,7 @@
         <v>42509</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="23">
         <v>42522</v>
       </c>
@@ -8429,7 +8428,7 @@
         <v>42524</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="23"/>
       <c r="B242" s="20" t="s">
         <v>47</v>
@@ -8451,7 +8450,7 @@
         <v>42530</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="23"/>
       <c r="B243" s="20" t="s">
         <v>47</v>
@@ -8473,7 +8472,7 @@
         <v>42551</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="23">
         <v>42552</v>
       </c>
@@ -8497,7 +8496,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="23">
         <v>42583</v>
       </c>
@@ -8523,7 +8522,7 @@
         <v>42612</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="23">
         <v>42614</v>
       </c>
@@ -8549,7 +8548,7 @@
         <v>42634</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="23">
         <v>42644</v>
       </c>
@@ -8575,7 +8574,7 @@
         <v>42662</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="23"/>
       <c r="B248" s="20" t="s">
         <v>47</v>
@@ -8597,7 +8596,7 @@
         <v>42683</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="23">
         <v>42675</v>
       </c>
@@ -8623,7 +8622,7 @@
         <v>42676</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="23"/>
       <c r="B250" s="20" t="s">
         <v>47</v>
@@ -8645,7 +8644,7 @@
         <v>42712</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="23">
         <v>42705</v>
       </c>
@@ -8669,7 +8668,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="47" t="s">
         <v>86</v>
       </c>
@@ -8691,7 +8690,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="23">
         <v>42736</v>
       </c>
@@ -8717,7 +8716,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="23"/>
       <c r="B254" s="20" t="s">
         <v>73</v>
@@ -8739,7 +8738,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="23">
         <v>42767</v>
       </c>
@@ -8759,7 +8758,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="23">
         <v>42795</v>
       </c>
@@ -8783,7 +8782,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="23"/>
       <c r="B257" s="20" t="s">
         <v>47</v>
@@ -8805,7 +8804,7 @@
         <v>42818</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="23"/>
       <c r="B258" s="20" t="s">
         <v>47</v>
@@ -8827,7 +8826,7 @@
         <v>42830</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="23">
         <v>42826</v>
       </c>
@@ -8853,7 +8852,7 @@
         <v>42852</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="23"/>
       <c r="B260" s="20" t="s">
         <v>47</v>
@@ -8875,7 +8874,7 @@
         <v>42888</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="23">
         <v>42856</v>
       </c>
@@ -8895,7 +8894,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="23">
         <v>42887</v>
       </c>
@@ -8915,7 +8914,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="23">
         <v>42917</v>
       </c>
@@ -8939,7 +8938,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="23">
         <v>42948</v>
       </c>
@@ -8959,7 +8958,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="23">
         <v>42979</v>
       </c>
@@ -8979,7 +8978,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="23">
         <v>43009</v>
       </c>
@@ -8999,7 +8998,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="23">
         <v>43040</v>
       </c>
@@ -9025,7 +9024,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="23"/>
       <c r="B268" s="20" t="s">
         <v>47</v>
@@ -9044,7 +9043,7 @@
         <v>43082</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="23"/>
       <c r="B269" s="20" t="s">
         <v>48</v>
@@ -9061,7 +9060,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="23">
         <v>43070</v>
       </c>
@@ -9081,7 +9080,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="47" t="s">
         <v>46</v>
       </c>
@@ -9103,7 +9102,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <v>43101</v>
       </c>
@@ -9129,7 +9128,7 @@
         <v>43115</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
         <v>43132</v>
       </c>
@@ -9155,7 +9154,7 @@
         <v>43143</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
         <v>43160</v>
       </c>
@@ -9179,7 +9178,7 @@
         <v>43168</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40">
         <v>43191</v>
       </c>
@@ -9205,7 +9204,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40">
         <v>43221</v>
       </c>
@@ -9225,7 +9224,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <v>43252</v>
       </c>
@@ -9245,7 +9244,7 @@
       <c r="J277" s="12"/>
       <c r="K277" s="15"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <v>43282</v>
       </c>
@@ -9265,7 +9264,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
         <v>43313</v>
       </c>
@@ -9285,7 +9284,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
         <v>43344</v>
       </c>
@@ -9309,7 +9308,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>47</v>
@@ -9331,7 +9330,7 @@
         <v>43360</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <v>43374</v>
       </c>
@@ -9357,7 +9356,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
         <v>43405</v>
       </c>
@@ -9377,7 +9376,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
         <v>43435</v>
       </c>
@@ -9397,7 +9396,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="47" t="s">
         <v>55</v>
       </c>
@@ -9415,7 +9414,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <v>43466</v>
       </c>
@@ -9441,7 +9440,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40">
         <v>43497</v>
       </c>
@@ -9461,7 +9460,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
         <v>43525</v>
       </c>
@@ -9481,7 +9480,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <v>43556</v>
       </c>
@@ -9501,7 +9500,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40">
         <v>43586</v>
       </c>
@@ -9527,7 +9526,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40"/>
       <c r="B291" s="20" t="s">
         <v>48</v>
@@ -9547,7 +9546,7 @@
         <v>43620</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <v>43617</v>
       </c>
@@ -9567,7 +9566,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40">
         <v>43647</v>
       </c>
@@ -9593,7 +9592,7 @@
         <v>43670</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <v>43678</v>
       </c>
@@ -9613,7 +9612,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
         <v>43709</v>
       </c>
@@ -9633,7 +9632,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
         <v>43739</v>
       </c>
@@ -9653,7 +9652,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40">
         <v>43770</v>
       </c>
@@ -9673,7 +9672,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
         <v>43800</v>
       </c>
@@ -9699,7 +9698,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40"/>
       <c r="B299" s="20" t="s">
         <v>47</v>
@@ -9721,7 +9720,7 @@
         <v>43780</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="47" t="s">
         <v>60</v>
       </c>
@@ -9739,7 +9738,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40">
         <v>43831</v>
       </c>
@@ -9759,7 +9758,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <v>43862</v>
       </c>
@@ -9779,7 +9778,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <v>43891</v>
       </c>
@@ -9799,7 +9798,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
         <v>43922</v>
       </c>
@@ -9819,7 +9818,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
         <v>43952</v>
       </c>
@@ -9839,7 +9838,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40">
         <v>43983</v>
       </c>
@@ -9859,7 +9858,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <v>44013</v>
       </c>
@@ -9879,7 +9878,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40">
         <v>44044</v>
       </c>
@@ -9899,7 +9898,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <v>44075</v>
       </c>
@@ -9925,7 +9924,7 @@
         <v>44089</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40"/>
       <c r="B310" s="20" t="s">
         <v>48</v>
@@ -9945,7 +9944,7 @@
         <v>44095</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <v>44105</v>
       </c>
@@ -9965,7 +9964,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
         <v>44136</v>
       </c>
@@ -9985,7 +9984,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40">
         <v>44166</v>
       </c>
@@ -10009,7 +10008,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="47" t="s">
         <v>61</v>
       </c>
@@ -10027,7 +10026,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
         <v>44197</v>
       </c>
@@ -10047,7 +10046,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
         <v>44228</v>
       </c>
@@ -10067,7 +10066,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40">
         <v>44256</v>
       </c>
@@ -10087,7 +10086,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <v>44287</v>
       </c>
@@ -10107,7 +10106,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40">
         <v>44317</v>
       </c>
@@ -10127,7 +10126,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
         <v>44348</v>
       </c>
@@ -10147,7 +10146,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
         <v>44378</v>
       </c>
@@ -10167,7 +10166,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <v>44409</v>
       </c>
@@ -10187,7 +10186,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
         <v>44440</v>
       </c>
@@ -10207,7 +10206,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
         <v>44470</v>
       </c>
@@ -10227,7 +10226,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
         <v>44501</v>
       </c>
@@ -10247,7 +10246,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
         <v>44531</v>
       </c>
@@ -10273,7 +10272,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="47" t="s">
         <v>63</v>
       </c>
@@ -10291,7 +10290,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
         <v>44562</v>
       </c>
@@ -10311,7 +10310,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <v>44593</v>
       </c>
@@ -10331,7 +10330,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
         <v>44621</v>
       </c>
@@ -10353,7 +10352,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
         <v>44652</v>
       </c>
@@ -10373,7 +10372,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
         <v>44682</v>
       </c>
@@ -10399,7 +10398,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40"/>
       <c r="B333" s="20" t="s">
         <v>66</v>
@@ -10421,7 +10420,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
         <v>44713</v>
       </c>
@@ -10447,7 +10446,7 @@
         <v>44718</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <v>44743</v>
       </c>
@@ -10467,7 +10466,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40">
         <v>44774</v>
       </c>
@@ -10487,7 +10486,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <v>44805</v>
       </c>
@@ -10513,7 +10512,7 @@
         <v>44816</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40"/>
       <c r="B338" s="20" t="s">
         <v>68</v>
@@ -10535,7 +10534,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40">
         <v>44835</v>
       </c>
@@ -10561,7 +10560,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
         <v>44866</v>
       </c>
@@ -10587,7 +10586,7 @@
         <v>44889</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
         <v>44896</v>
       </c>
@@ -10613,7 +10612,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
         <v>47</v>
@@ -10635,7 +10634,7 @@
         <v>44908</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40"/>
       <c r="B343" s="20" t="s">
         <v>47</v>
@@ -10657,7 +10656,7 @@
         <v>44910</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="47" t="s">
         <v>72</v>
       </c>
@@ -10675,7 +10674,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
         <v>44927</v>
       </c>
@@ -10701,7 +10700,7 @@
         <v>44936</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40"/>
       <c r="B346" s="20" t="s">
         <v>47</v>
@@ -10723,7 +10722,7 @@
         <v>44957</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
         <v>44958</v>
       </c>
@@ -10749,7 +10748,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40"/>
       <c r="B348" s="20" t="s">
         <v>47</v>
@@ -10771,7 +10770,7 @@
         <v>44972</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40">
         <v>44986</v>
       </c>
@@ -10795,7 +10794,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40">
         <v>45017</v>
       </c>
@@ -10815,7 +10814,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
         <v>45047</v>
       </c>
@@ -10841,7 +10840,7 @@
         <v>45064</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40"/>
       <c r="B352" s="20" t="s">
         <v>47</v>
@@ -10863,7 +10862,7 @@
         <v>45069</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <v>45078</v>
       </c>
@@ -10889,7 +10888,7 @@
         <v>45086</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <v>45108</v>
       </c>
@@ -10913,11 +10912,11 @@
         <v>45107</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A355" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B355" s="20"/>
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A355" s="40"/>
+      <c r="B355" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C355" s="13"/>
       <c r="D355" s="39"/>
       <c r="E355" s="9"/>
@@ -10926,14 +10925,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H355" s="39"/>
+      <c r="H355" s="39">
+        <v>1</v>
+      </c>
       <c r="I355" s="9"/>
       <c r="J355" s="11"/>
-      <c r="K355" s="20"/>
-    </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K355" s="48">
+        <v>45113</v>
+      </c>
+    </row>
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B356" s="20"/>
       <c r="C356" s="13"/>
@@ -10949,9 +10952,9 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B357" s="20"/>
       <c r="C357" s="13"/>
@@ -10967,9 +10970,9 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B358" s="20"/>
       <c r="C358" s="13"/>
@@ -10985,9 +10988,9 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B359" s="20"/>
       <c r="C359" s="13"/>
@@ -11003,9 +11006,9 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B360" s="20"/>
       <c r="C360" s="13"/>
@@ -11021,9 +11024,9 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B361" s="20"/>
       <c r="C361" s="13"/>
@@ -11039,9 +11042,9 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B362" s="20"/>
       <c r="C362" s="13"/>
@@ -11057,9 +11060,9 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B363" s="20"/>
       <c r="C363" s="13"/>
@@ -11075,9 +11078,9 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B364" s="20"/>
       <c r="C364" s="13"/>
@@ -11093,9 +11096,9 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B365" s="20"/>
       <c r="C365" s="13"/>
@@ -11111,9 +11114,9 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B366" s="20"/>
       <c r="C366" s="13"/>
@@ -11129,9 +11132,9 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B367" s="20"/>
       <c r="C367" s="13"/>
@@ -11147,9 +11150,9 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B368" s="20"/>
       <c r="C368" s="13"/>
@@ -11165,9 +11168,9 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B369" s="20"/>
       <c r="C369" s="13"/>
@@ -11183,9 +11186,9 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B370" s="20"/>
       <c r="C370" s="13"/>
@@ -11201,9 +11204,9 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B371" s="20"/>
       <c r="C371" s="13"/>
@@ -11219,9 +11222,9 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B372" s="20"/>
       <c r="C372" s="13"/>
@@ -11237,9 +11240,9 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B373" s="20"/>
       <c r="C373" s="13"/>
@@ -11255,9 +11258,9 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B374" s="20"/>
       <c r="C374" s="13"/>
@@ -11273,9 +11276,9 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B375" s="20"/>
       <c r="C375" s="13"/>
@@ -11291,9 +11294,9 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B376" s="20"/>
       <c r="C376" s="13"/>
@@ -11309,9 +11312,9 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B377" s="20"/>
       <c r="C377" s="13"/>
@@ -11327,9 +11330,9 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B378" s="20"/>
       <c r="C378" s="13"/>
@@ -11345,9 +11348,9 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B379" s="20"/>
       <c r="C379" s="13"/>
@@ -11363,9 +11366,9 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B380" s="20"/>
       <c r="C380" s="13"/>
@@ -11381,9 +11384,9 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B381" s="20"/>
       <c r="C381" s="13"/>
@@ -11399,9 +11402,9 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B382" s="20"/>
       <c r="C382" s="13"/>
@@ -11417,9 +11420,9 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B383" s="20"/>
       <c r="C383" s="13"/>
@@ -11435,9 +11438,9 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B384" s="20"/>
       <c r="C384" s="13"/>
@@ -11453,9 +11456,9 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B385" s="20"/>
       <c r="C385" s="13"/>
@@ -11471,9 +11474,9 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B386" s="20"/>
       <c r="C386" s="13"/>
@@ -11489,9 +11492,9 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B387" s="20"/>
       <c r="C387" s="13"/>
@@ -11507,9 +11510,9 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B388" s="20"/>
       <c r="C388" s="13"/>
@@ -11525,9 +11528,9 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B389" s="20"/>
       <c r="C389" s="13"/>
@@ -11543,9 +11546,9 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B390" s="20"/>
       <c r="C390" s="13"/>
@@ -11561,9 +11564,9 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B391" s="20"/>
       <c r="C391" s="13"/>
@@ -11579,9 +11582,9 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B392" s="20"/>
       <c r="C392" s="13"/>
@@ -11597,9 +11600,9 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B393" s="20"/>
       <c r="C393" s="13"/>
@@ -11615,9 +11618,9 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B394" s="20"/>
       <c r="C394" s="13"/>
@@ -11633,9 +11636,9 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B395" s="20"/>
       <c r="C395" s="13"/>
@@ -11651,9 +11654,9 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B396" s="20"/>
       <c r="C396" s="13"/>
@@ -11669,9 +11672,9 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B397" s="20"/>
       <c r="C397" s="13"/>
@@ -11687,23 +11690,41 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B398" s="20"/>
       <c r="C398" s="13"/>
-      <c r="D398" s="42"/>
+      <c r="D398" s="39"/>
       <c r="E398" s="9"/>
-      <c r="F398" s="15"/>
-      <c r="G398" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H398" s="42"/>
+      <c r="F398" s="20"/>
+      <c r="G398" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H398" s="39"/>
       <c r="I398" s="9"/>
-      <c r="J398" s="12"/>
-      <c r="K398" s="15"/>
+      <c r="J398" s="11"/>
+      <c r="K398" s="20"/>
+    </row>
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A399" s="40">
+        <v>46447</v>
+      </c>
+      <c r="B399" s="20"/>
+      <c r="C399" s="13"/>
+      <c r="D399" s="42"/>
+      <c r="E399" s="9"/>
+      <c r="F399" s="15"/>
+      <c r="G399" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H399" s="42"/>
+      <c r="I399" s="9"/>
+      <c r="J399" s="12"/>
+      <c r="K399" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -11720,10 +11741,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11746,28 +11767,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
@@ -11780,7 +11801,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -11809,7 +11830,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -11833,17 +11854,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -11864,7 +11885,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -11891,7 +11912,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -11917,7 +11938,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -11943,7 +11964,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -11969,7 +11990,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -11995,7 +12016,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -12021,7 +12042,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -12047,7 +12068,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -12073,7 +12094,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -12093,7 +12114,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -12113,7 +12134,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -12133,7 +12154,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -12154,7 +12175,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -12175,7 +12196,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -12196,7 +12217,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -12217,7 +12238,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -12238,7 +12259,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -12259,7 +12280,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -12280,7 +12301,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -12301,7 +12322,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -12322,7 +12343,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -12343,7 +12364,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -12364,7 +12385,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -12385,7 +12406,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -12406,7 +12427,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -12427,7 +12448,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -12448,7 +12469,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -12469,7 +12490,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -12490,7 +12511,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -12511,7 +12532,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -12532,7 +12553,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -12553,7 +12574,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -12562,7 +12583,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -12571,7 +12592,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -12580,7 +12601,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -12589,7 +12610,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -12598,7 +12619,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -12607,7 +12628,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -12616,7 +12637,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -12625,7 +12646,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -12634,7 +12655,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -12643,7 +12664,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -12652,7 +12673,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -12661,7 +12682,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -12670,7 +12691,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -12679,7 +12700,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -12688,7 +12709,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -12697,7 +12718,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -12706,7 +12727,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -12715,7 +12736,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -12724,7 +12745,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -12733,7 +12754,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -12742,7 +12763,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -12751,7 +12772,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -12760,7 +12781,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -12769,7 +12790,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -12778,7 +12799,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -12787,7 +12808,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -12796,7 +12817,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -12805,7 +12826,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -12814,7 +12835,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
